--- a/pt_characterization/rep_check/u_s_time/all_freq_data.xlsx
+++ b/pt_characterization/rep_check/u_s_time/all_freq_data.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="555" windowWidth="19815" windowHeight="8385"/>
+    <workbookView xWindow="11640" yWindow="240" windowWidth="24660" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="all_freq_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -46,6 +51,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -66,14 +83,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,8 +152,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25216159264138677"/>
-          <c:y val="1.5444015444015444E-2"/>
+          <c:x val="0.252161592641387"/>
+          <c:y val="0.0154440154440154"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -170,10 +191,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4303270456951638E-2"/>
-          <c:y val="2.8577914247205585E-2"/>
-          <c:w val="0.88667381557850011"/>
-          <c:h val="0.86837077797707718"/>
+          <c:x val="0.0943032704569516"/>
+          <c:y val="0.0285779142472056"/>
+          <c:w val="0.8866738155785"/>
+          <c:h val="0.868370777977077"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -202,25 +223,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60299999999999998</c:v>
+                  <c:v>0.603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,34 +269,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.636</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0.007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,34 +324,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>0.038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -358,34 +379,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>0.052</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29799999999999999</c:v>
+                  <c:v>0.298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,37 +434,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>0.324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.019</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,25 +492,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23400000000000001</c:v>
+                  <c:v>0.234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.12</c:v>
@@ -498,43 +519,43 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,28 +583,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.099</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>0.037</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.111</c:v>
@@ -592,19 +613,19 @@
                   <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0.003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,31 +653,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20666666666666667</c:v>
+                  <c:v>0.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,10 +711,10 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.12</c:v>
@@ -702,43 +723,43 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15666666666666668</c:v>
+                  <c:v>0.156666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.0333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,16 +787,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39666666666666667</c:v>
+                  <c:v>0.396666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35333333333333333</c:v>
+                  <c:v>0.353333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10666666666666667</c:v>
+                  <c:v>0.106666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.02</c:v>
@@ -809,28 +830,28 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14666666666666667</c:v>
+                  <c:v>0.146666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30666666666666664</c:v>
+                  <c:v>0.306666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29666666666666669</c:v>
+                  <c:v>0.296666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14333333333333334</c:v>
+                  <c:v>0.143333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.0333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>0.0133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,21 +874,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$130:$F$171</c:f>
+              <c:f>all_freq_data!$F$130:$F$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>0.0233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18666666666666668</c:v>
+                  <c:v>0.186666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.26</c:v>
@@ -876,112 +897,22 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10333333333333333</c:v>
+                  <c:v>0.103333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3333333333333335E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,7 +923,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$172</c:f>
+              <c:f>all_freq_data!$A$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1004,10 +935,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$172:$F$184</c:f>
+              <c:f>all_freq_data!$F$142:$F$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -1015,37 +946,34 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>0.0266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10666666666666667</c:v>
+                  <c:v>0.106666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14666666666666667</c:v>
+                  <c:v>0.146666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.0166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +984,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$186</c:f>
+              <c:f>all_freq_data!$A$154</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1068,69 +996,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$186:$F$205</c:f>
+              <c:f>all_freq_data!$F$154:$F$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9230769230769232E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6923076923076927E-3</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6923076923076925E-2</c:v>
+                  <c:v>0.0230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5384615384615385E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3846153846153849E-2</c:v>
+                  <c:v>0.0384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9230769230769235E-2</c:v>
+                  <c:v>0.0653846153846154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2307692307692313E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6153846153846159E-2</c:v>
+                  <c:v>0.123076923076923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11923076923076924</c:v>
+                  <c:v>0.103846153846154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2307692307692313E-2</c:v>
+                  <c:v>0.103846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>0.111538461538462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.0846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8461538461538466E-2</c:v>
+                  <c:v>0.0653846153846154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.230769230769231E-2</c:v>
+                  <c:v>0.0576923076923077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.230769230769231E-2</c:v>
+                  <c:v>0.0423076923076923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9230769230769232E-2</c:v>
+                  <c:v>0.0346153846153846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8461538461538464E-3</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1069,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$206</c:f>
+              <c:f>all_freq_data!$A$175</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1153,111 +1081,66 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$206:$F$239</c:f>
+              <c:f>all_freq_data!$F$175:$F$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0461538461538461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.0538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5384615384615385E-2</c:v>
+                  <c:v>0.138461538461538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6153846153846156E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.146153846153846</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3846153846153849E-2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2307692307692313E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.3846153846153849E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.0769230769230771E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3076923076923078E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6153846153846156E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5384615384615385E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6923076923076927E-3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,12 +1156,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="213326848"/>
-        <c:axId val="213328640"/>
-        <c:axId val="213331968"/>
+        <c:axId val="2038544856"/>
+        <c:axId val="2132577080"/>
+        <c:axId val="2132324856"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="213326848"/>
+        <c:axId val="2038544856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,8 +1195,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35253217861386005"/>
-              <c:y val="0.84045805085175163"/>
+              <c:x val="0.249277375681575"/>
+              <c:y val="0.84316259656184"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1321,7 +1204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213328640"/>
+        <c:crossAx val="2132577080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213328640"/>
+        <c:axId val="2132577080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,12 +1257,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213326848"/>
+        <c:crossAx val="2038544856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213331968"/>
+        <c:axId val="2132324856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,8 +1288,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.82983274950553365"/>
-              <c:y val="0.86911744140090597"/>
+              <c:x val="0.829832749505533"/>
+              <c:y val="0.869117441400906"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1424,7 +1307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213328640"/>
+        <c:crossAx val="2132577080"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1434,10 +1317,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11687776382037848"/>
-          <c:y val="0.87880845975334165"/>
-          <c:w val="0.81639565482330267"/>
-          <c:h val="0.12119154024665836"/>
+          <c:x val="0.116877763820378"/>
+          <c:y val="0.878808459753342"/>
+          <c:w val="0.816395654823303"/>
+          <c:h val="0.121191540246658"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1499,8 +1382,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17163856463467358"/>
-          <c:y val="2.3166023166023165E-2"/>
+          <c:x val="0.171638564634674"/>
+          <c:y val="0.0231660231660232"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1543,10 +1426,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.0537598169878571E-2"/>
-          <c:y val="1.5707901377192714E-2"/>
-          <c:w val="0.93179270879077858"/>
-          <c:h val="0.80864013619919128"/>
+          <c:x val="0.0405375981698786"/>
+          <c:y val="0.0157079013771927"/>
+          <c:w val="0.931792708790779"/>
+          <c:h val="0.808640136199192"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -1575,25 +1458,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>0.009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60299999999999998</c:v>
+                  <c:v>0.603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,34 +1504,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63600000000000001</c:v>
+                  <c:v>0.636</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>0.007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,34 +1559,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>0.038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>0.087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.027</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21199999999999999</c:v>
+                  <c:v>0.212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,34 +1614,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>0.078</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>0.052</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29799999999999999</c:v>
+                  <c:v>0.298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,37 +1669,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>0.324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0.085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9E-2</c:v>
+                  <c:v>0.019</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,25 +1727,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23400000000000001</c:v>
+                  <c:v>0.234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>0.071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.022</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.12</c:v>
@@ -1871,43 +1754,43 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,28 +1818,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8999999999999996E-2</c:v>
+                  <c:v>0.089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.099</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6999999999999998E-2</c:v>
+                  <c:v>0.037</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.111</c:v>
@@ -1965,19 +1848,19 @@
                   <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.205</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>0.096</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0.004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>0.003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,31 +1888,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20666666666666667</c:v>
+                  <c:v>0.206666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,10 +1946,10 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.12</c:v>
@@ -2075,43 +1958,43 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15666666666666668</c:v>
+                  <c:v>0.156666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.0333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,16 +2022,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39666666666666667</c:v>
+                  <c:v>0.396666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35333333333333333</c:v>
+                  <c:v>0.353333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10666666666666667</c:v>
+                  <c:v>0.106666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.02</c:v>
@@ -2182,28 +2065,28 @@
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14666666666666667</c:v>
+                  <c:v>0.146666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30666666666666664</c:v>
+                  <c:v>0.306666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29666666666666669</c:v>
+                  <c:v>0.296666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14333333333333334</c:v>
+                  <c:v>0.143333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3333333333333333E-2</c:v>
+                  <c:v>0.0333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3333333333333334E-2</c:v>
+                  <c:v>0.0133333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,21 +2109,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$130:$F$171</c:f>
+              <c:f>all_freq_data!$F$130:$F$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3333333333333334E-2</c:v>
+                  <c:v>0.0233333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.0833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18666666666666668</c:v>
+                  <c:v>0.186666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.26</c:v>
@@ -2249,112 +2132,22 @@
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10333333333333333</c:v>
+                  <c:v>0.103333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6666666666666666E-2</c:v>
+                  <c:v>0.0666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>0.00666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3333333333333335E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.00333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2365,7 +2158,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$172</c:f>
+              <c:f>all_freq_data!$A$142</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2377,10 +2170,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$172:$F$184</c:f>
+              <c:f>all_freq_data!$F$142:$F$153</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -2388,37 +2181,34 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6666666666666668E-2</c:v>
+                  <c:v>0.0266666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3333333333333334E-2</c:v>
+                  <c:v>0.0733333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3333333333333338E-2</c:v>
+                  <c:v>0.0933333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10666666666666667</c:v>
+                  <c:v>0.106666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14666666666666667</c:v>
+                  <c:v>0.146666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11333333333333333</c:v>
+                  <c:v>0.113333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3333333333333335E-3</c:v>
+                  <c:v>0.0166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2219,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$186</c:f>
+              <c:f>all_freq_data!$A$154</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2441,69 +2231,69 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$186:$F$205</c:f>
+              <c:f>all_freq_data!$F$154:$F$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9230769230769232E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6923076923076927E-3</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6923076923076925E-2</c:v>
+                  <c:v>0.0230769230769231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5384615384615385E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3846153846153849E-2</c:v>
+                  <c:v>0.0384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9230769230769235E-2</c:v>
+                  <c:v>0.0653846153846154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2307692307692313E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6153846153846159E-2</c:v>
+                  <c:v>0.123076923076923</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11923076923076924</c:v>
+                  <c:v>0.103846153846154</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2307692307692313E-2</c:v>
+                  <c:v>0.103846153846154</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>0.111538461538462</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.0846153846153846</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8461538461538466E-2</c:v>
+                  <c:v>0.0653846153846154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.230769230769231E-2</c:v>
+                  <c:v>0.0576923076923077</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.230769230769231E-2</c:v>
+                  <c:v>0.0423076923076923</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9230769230769232E-2</c:v>
+                  <c:v>0.0346153846153846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1538461538461539E-2</c:v>
+                  <c:v>0.0115384615384615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8461538461538464E-3</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,7 +2304,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_freq_data!$A$206</c:f>
+              <c:f>all_freq_data!$A$175</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2526,111 +2316,66 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>all_freq_data!$F$206:$F$239</c:f>
+              <c:f>all_freq_data!$F$175:$F$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0461538461538461</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3076923076923078E-2</c:v>
+                  <c:v>0.0769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.0538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5384615384615385E-2</c:v>
+                  <c:v>0.138461538461538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6153846153846156E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.146153846153846</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0538461538461538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8461538461538464E-2</c:v>
+                  <c:v>0.0692307692307692</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.0769230769230771E-2</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.0153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3846153846153849E-2</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1538461538461542E-2</c:v>
+                  <c:v>0.00769230769230769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.2307692307692313E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.3846153846153849E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.0769230769230771E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3076923076923078E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.6153846153846156E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.8461538461538464E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5384615384615385E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.6923076923076927E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6923076923076927E-3</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,12 +2391,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="213374464"/>
-        <c:axId val="213376000"/>
-        <c:axId val="213372416"/>
+        <c:axId val="2132294520"/>
+        <c:axId val="2132299976"/>
+        <c:axId val="2132305432"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="213374464"/>
+        <c:axId val="2132294520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,8 +2422,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.64785386262514855"/>
-              <c:y val="0.71303600563443081"/>
+              <c:x val="0.647853862625149"/>
+              <c:y val="0.713036005634431"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2686,7 +2431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213376000"/>
+        <c:crossAx val="2132299976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2694,7 +2439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213376000"/>
+        <c:axId val="2132299976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,8 +2466,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.8207120997034907E-3"/>
-              <c:y val="0.33638058756168998"/>
+              <c:x val="0.00582071209970349"/>
+              <c:y val="0.33638058756169"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2731,12 +2476,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213374464"/>
+        <c:crossAx val="2132294520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="213372416"/>
+        <c:axId val="2132305432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,8 +2507,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.13647790135182519"/>
-              <c:y val="0.81853038640440212"/>
+              <c:x val="0.136477901351825"/>
+              <c:y val="0.818530386404402"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2771,7 +2516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213376000"/>
+        <c:crossAx val="2132299976"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2781,10 +2526,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1116896963755017"/>
-          <c:y val="0.87880845975334165"/>
-          <c:w val="0.80774887574850807"/>
-          <c:h val="0.12119154024665836"/>
+          <c:x val="0.111689696375502"/>
+          <c:y val="0.878808459753342"/>
+          <c:w val="0.807748875748508"/>
+          <c:h val="0.121191540246658"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2805,16 +2550,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2836,15 +2581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3155,15 +2900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3205,7 +2950,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3227,7 +2972,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3249,7 +2994,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3271,7 +3016,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3293,7 +3038,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3315,7 +3060,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3337,7 +3082,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3359,7 +3104,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3381,7 +3126,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3403,7 +3148,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3425,7 +3170,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3447,7 +3192,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -3469,7 +3214,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3491,7 +3236,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3513,7 +3258,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3535,7 +3280,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3557,7 +3302,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -3579,7 +3324,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3601,7 +3346,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -3623,7 +3368,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -3645,7 +3390,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -3667,7 +3412,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -3689,7 +3434,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -3711,7 +3456,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -3733,7 +3478,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -3755,7 +3500,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -3777,7 +3522,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -3799,7 +3544,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -3821,7 +3566,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -3843,7 +3588,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -3865,7 +3610,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12">
       <c r="A33" s="1">
         <v>8</v>
       </c>
@@ -3887,7 +3632,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -3909,7 +3654,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -3931,7 +3676,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -3953,7 +3698,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -3975,7 +3720,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12">
       <c r="A38" s="1">
         <v>8</v>
       </c>
@@ -3997,7 +3742,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12">
       <c r="A39" s="1">
         <v>16</v>
       </c>
@@ -4019,7 +3764,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12">
       <c r="A40" s="1">
         <v>16</v>
       </c>
@@ -4041,7 +3786,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="12">
       <c r="A41" s="1">
         <v>16</v>
       </c>
@@ -4063,7 +3808,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -4085,7 +3830,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12">
       <c r="A43" s="1">
         <v>16</v>
       </c>
@@ -4107,7 +3852,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12">
       <c r="A44" s="1">
         <v>16</v>
       </c>
@@ -4129,7 +3874,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12">
       <c r="A45" s="1">
         <v>16</v>
       </c>
@@ -4151,7 +3896,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12">
       <c r="A46" s="1">
         <v>16</v>
       </c>
@@ -4173,7 +3918,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12">
       <c r="A47" s="1">
         <v>16</v>
       </c>
@@ -4195,7 +3940,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="12">
       <c r="A48" s="1">
         <v>16</v>
       </c>
@@ -4217,7 +3962,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -4239,7 +3984,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12">
       <c r="A50" s="1">
         <v>32</v>
       </c>
@@ -4261,7 +4006,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12">
       <c r="A51" s="1">
         <v>32</v>
       </c>
@@ -4283,7 +4028,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12">
       <c r="A52" s="1">
         <v>32</v>
       </c>
@@ -4305,7 +4050,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12">
       <c r="A53" s="1">
         <v>32</v>
       </c>
@@ -4327,7 +4072,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12">
       <c r="A54" s="1">
         <v>32</v>
       </c>
@@ -4349,7 +4094,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12">
       <c r="A55" s="1">
         <v>32</v>
       </c>
@@ -4371,7 +4116,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12">
       <c r="A56" s="1">
         <v>32</v>
       </c>
@@ -4393,7 +4138,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12">
       <c r="A57" s="1">
         <v>32</v>
       </c>
@@ -4415,7 +4160,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12">
       <c r="A58" s="1">
         <v>32</v>
       </c>
@@ -4437,7 +4182,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12">
       <c r="A59" s="1">
         <v>32</v>
       </c>
@@ -4459,7 +4204,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12">
       <c r="A60" s="1">
         <v>32</v>
       </c>
@@ -4481,7 +4226,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12">
       <c r="A61" s="1">
         <v>32</v>
       </c>
@@ -4503,7 +4248,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12">
       <c r="A62" s="1">
         <v>32</v>
       </c>
@@ -4525,7 +4270,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="12">
       <c r="A63" s="1">
         <v>32</v>
       </c>
@@ -4547,7 +4292,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12">
       <c r="A64" s="1">
         <v>32</v>
       </c>
@@ -4569,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="12">
       <c r="A65" s="1">
         <v>32</v>
       </c>
@@ -4591,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="12">
       <c r="A66" s="1">
         <v>32</v>
       </c>
@@ -4613,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12">
       <c r="A67" s="1">
         <v>32</v>
       </c>
@@ -4635,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12">
       <c r="A68" s="1">
         <v>32</v>
       </c>
@@ -4657,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12">
       <c r="A69" s="1">
         <v>32</v>
       </c>
@@ -4679,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12">
       <c r="A70" s="1">
         <v>32</v>
       </c>
@@ -4701,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12">
       <c r="A71" s="1">
         <v>32</v>
       </c>
@@ -4723,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12">
       <c r="A72" s="1">
         <v>32</v>
       </c>
@@ -4745,7 +4490,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12">
       <c r="A73" s="1">
         <v>64</v>
       </c>
@@ -4767,7 +4512,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12">
       <c r="A74" s="1">
         <v>64</v>
       </c>
@@ -4789,7 +4534,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12">
       <c r="A75" s="1">
         <v>64</v>
       </c>
@@ -4811,7 +4556,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12">
       <c r="A76" s="1">
         <v>64</v>
       </c>
@@ -4833,7 +4578,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12">
       <c r="A77" s="1">
         <v>64</v>
       </c>
@@ -4855,7 +4600,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12">
       <c r="A78" s="1">
         <v>64</v>
       </c>
@@ -4877,7 +4622,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12">
       <c r="A79" s="1">
         <v>64</v>
       </c>
@@ -4899,7 +4644,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12">
       <c r="A80" s="1">
         <v>64</v>
       </c>
@@ -4921,7 +4666,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12">
       <c r="A81" s="1">
         <v>64</v>
       </c>
@@ -4943,7 +4688,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12">
       <c r="A82" s="1">
         <v>64</v>
       </c>
@@ -4965,7 +4710,7 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12">
       <c r="A83" s="1">
         <v>64</v>
       </c>
@@ -4987,7 +4732,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12">
       <c r="A84" s="1">
         <v>64</v>
       </c>
@@ -5009,7 +4754,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12">
       <c r="A85" s="1">
         <v>64</v>
       </c>
@@ -5031,7 +4776,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="12">
       <c r="A86" s="1">
         <v>64</v>
       </c>
@@ -5053,7 +4798,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="12">
       <c r="A87" s="1">
         <v>64</v>
       </c>
@@ -5075,7 +4820,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12">
       <c r="A88" s="1">
         <v>128</v>
       </c>
@@ -5097,7 +4842,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12">
       <c r="A89" s="1">
         <v>128</v>
       </c>
@@ -5119,7 +4864,7 @@
         <v>9.3333333333333338E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12">
       <c r="A90" s="1">
         <v>128</v>
       </c>
@@ -5141,7 +4886,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="12">
       <c r="A91" s="1">
         <v>128</v>
       </c>
@@ -5163,7 +4908,7 @@
         <v>0.20666666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12">
       <c r="A92" s="1">
         <v>128</v>
       </c>
@@ -5185,7 +4930,7 @@
         <v>9.3333333333333338E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="12">
       <c r="A93" s="1">
         <v>128</v>
       </c>
@@ -5207,7 +4952,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12">
       <c r="A94" s="1">
         <v>128</v>
       </c>
@@ -5229,7 +4974,7 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12">
       <c r="A95" s="1">
         <v>128</v>
       </c>
@@ -5251,7 +4996,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12">
       <c r="A96" s="1">
         <v>128</v>
       </c>
@@ -5273,7 +5018,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12">
       <c r="A97" s="1">
         <v>256</v>
       </c>
@@ -5295,7 +5040,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="12">
       <c r="A98" s="1">
         <v>256</v>
       </c>
@@ -5317,7 +5062,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12">
       <c r="A99" s="1">
         <v>256</v>
       </c>
@@ -5339,7 +5084,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12">
       <c r="A100" s="1">
         <v>256</v>
       </c>
@@ -5361,7 +5106,7 @@
         <v>0.11333333333333333</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12">
       <c r="A101" s="1">
         <v>256</v>
       </c>
@@ -5383,7 +5128,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12">
       <c r="A102" s="1">
         <v>256</v>
       </c>
@@ -5405,7 +5150,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="12">
       <c r="A103" s="1">
         <v>256</v>
       </c>
@@ -5427,7 +5172,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="12">
       <c r="A104" s="1">
         <v>256</v>
       </c>
@@ -5449,7 +5194,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="12">
       <c r="A105" s="1">
         <v>256</v>
       </c>
@@ -5471,7 +5216,7 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12">
       <c r="A106" s="1">
         <v>256</v>
       </c>
@@ -5493,7 +5238,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12">
       <c r="A107" s="1">
         <v>256</v>
       </c>
@@ -5515,7 +5260,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12">
       <c r="A108" s="1">
         <v>256</v>
       </c>
@@ -5537,7 +5282,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12">
       <c r="A109" s="1">
         <v>256</v>
       </c>
@@ -5559,7 +5304,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12">
       <c r="A110" s="1">
         <v>256</v>
       </c>
@@ -5581,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12">
       <c r="A111" s="1">
         <v>256</v>
       </c>
@@ -5603,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12">
       <c r="A112" s="1">
         <v>256</v>
       </c>
@@ -5625,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12">
       <c r="A113" s="1">
         <v>256</v>
       </c>
@@ -5647,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="12">
       <c r="A114" s="1">
         <v>256</v>
       </c>
@@ -5669,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12">
       <c r="A115" s="1">
         <v>256</v>
       </c>
@@ -5691,7 +5436,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12">
       <c r="A116" s="1">
         <v>512</v>
       </c>
@@ -5713,7 +5458,7 @@
         <v>0.11333333333333333</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12">
       <c r="A117" s="1">
         <v>512</v>
       </c>
@@ -5735,7 +5480,7 @@
         <v>0.39666666666666667</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12">
       <c r="A118" s="1">
         <v>512</v>
       </c>
@@ -5757,7 +5502,7 @@
         <v>0.35333333333333333</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12">
       <c r="A119" s="1">
         <v>512</v>
       </c>
@@ -5779,7 +5524,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12">
       <c r="A120" s="1">
         <v>512</v>
       </c>
@@ -5801,7 +5546,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12">
       <c r="A121" s="1">
         <v>1024</v>
       </c>
@@ -5809,21 +5554,21 @@
         <v>300</v>
       </c>
       <c r="C121" s="1">
-        <v>1026152.5</v>
+        <v>1026152</v>
       </c>
       <c r="D121" s="1">
         <v>12</v>
       </c>
       <c r="E121" s="1">
         <f t="shared" si="2"/>
-        <v>2.10205078125</v>
+        <v>2.1015625</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12">
       <c r="A122" s="1">
         <v>1024</v>
       </c>
@@ -5831,21 +5576,21 @@
         <v>300</v>
       </c>
       <c r="C122" s="1">
-        <v>1026157.5</v>
+        <v>1026158</v>
       </c>
       <c r="D122" s="1">
         <v>44</v>
       </c>
       <c r="E122" s="1">
         <f t="shared" si="2"/>
-        <v>2.10693359375</v>
+        <v>2.107421875</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
         <v>0.14666666666666667</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12">
       <c r="A123" s="1">
         <v>1024</v>
       </c>
@@ -5853,21 +5598,21 @@
         <v>300</v>
       </c>
       <c r="C123" s="1">
-        <v>1026162.5</v>
+        <v>1026162</v>
       </c>
       <c r="D123" s="1">
         <v>92</v>
       </c>
       <c r="E123" s="1">
         <f t="shared" si="2"/>
-        <v>2.11181640625</v>
+        <v>2.111328125</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
         <v>0.30666666666666664</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12">
       <c r="A124" s="1">
         <v>1024</v>
       </c>
@@ -5875,21 +5620,21 @@
         <v>300</v>
       </c>
       <c r="C124" s="1">
-        <v>1026167.5</v>
+        <v>1026168</v>
       </c>
       <c r="D124" s="1">
         <v>89</v>
       </c>
       <c r="E124" s="1">
         <f t="shared" si="2"/>
-        <v>2.11669921875</v>
+        <v>2.1171875</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
         <v>0.29666666666666669</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12">
       <c r="A125" s="1">
         <v>1024</v>
       </c>
@@ -5897,21 +5642,21 @@
         <v>300</v>
       </c>
       <c r="C125" s="1">
-        <v>1026172.5</v>
+        <v>1026172</v>
       </c>
       <c r="D125" s="1">
         <v>43</v>
       </c>
       <c r="E125" s="1">
         <f t="shared" si="2"/>
-        <v>2.12158203125</v>
+        <v>2.12109375</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
         <v>0.14333333333333334</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12">
       <c r="A126" s="1">
         <v>1024</v>
       </c>
@@ -5919,21 +5664,21 @@
         <v>300</v>
       </c>
       <c r="C126" s="1">
-        <v>1026177.5</v>
+        <v>1026178</v>
       </c>
       <c r="D126" s="1">
         <v>10</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="2"/>
-        <v>2.12646484375</v>
+        <v>2.126953125</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12">
       <c r="A127" s="1">
         <v>1024</v>
       </c>
@@ -5941,21 +5686,21 @@
         <v>300</v>
       </c>
       <c r="C127" s="1">
-        <v>1026182.5</v>
+        <v>1026182</v>
       </c>
       <c r="D127" s="1">
         <v>4</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="2"/>
-        <v>2.13134765625</v>
+        <v>2.130859375</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12">
       <c r="A128" s="1">
         <v>1024</v>
       </c>
@@ -5963,21 +5708,21 @@
         <v>300</v>
       </c>
       <c r="C128" s="1">
-        <v>1026187.5</v>
+        <v>1026188</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
       <c r="E128" s="1">
         <f t="shared" si="2"/>
-        <v>2.13623046875</v>
+        <v>2.13671875</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12">
       <c r="A129" s="1">
         <v>1024</v>
       </c>
@@ -5985,21 +5730,21 @@
         <v>300</v>
       </c>
       <c r="C129" s="1">
-        <v>1026192.5</v>
+        <v>1026192</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="1">
         <f t="shared" si="2"/>
-        <v>2.14111328125</v>
+        <v>2.140625</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12">
       <c r="A130" s="1">
         <v>2048</v>
       </c>
@@ -6007,21 +5752,21 @@
         <v>300</v>
       </c>
       <c r="C130" s="1">
-        <v>2052250.5</v>
+        <v>2052250</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
       </c>
       <c r="E130" s="1">
         <f t="shared" si="2"/>
-        <v>2.075439453125</v>
+        <v>2.0751953125</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12">
       <c r="A131" s="1">
         <v>2048</v>
       </c>
@@ -6029,21 +5774,21 @@
         <v>300</v>
       </c>
       <c r="C131" s="1">
-        <v>2052255.5</v>
+        <v>2052256</v>
       </c>
       <c r="D131" s="1">
         <v>7</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" ref="E131:E194" si="4">(C131-A131*1000)/A131</f>
-        <v>2.077880859375</v>
+        <f t="shared" ref="E131:E162" si="4">(C131-A131*1000)/A131</f>
+        <v>2.078125</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" ref="F131:F194" si="5">D131/B131</f>
+        <f t="shared" ref="F131:F162" si="5">D131/B131</f>
         <v>2.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12">
       <c r="A132" s="1">
         <v>2048</v>
       </c>
@@ -6051,21 +5796,21 @@
         <v>300</v>
       </c>
       <c r="C132" s="1">
-        <v>2052260.5</v>
+        <v>2052260</v>
       </c>
       <c r="D132" s="1">
         <v>25</v>
       </c>
       <c r="E132" s="1">
         <f t="shared" si="4"/>
-        <v>2.080322265625</v>
+        <v>2.080078125</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="5"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="12">
       <c r="A133" s="1">
         <v>2048</v>
       </c>
@@ -6073,21 +5818,21 @@
         <v>300</v>
       </c>
       <c r="C133" s="1">
-        <v>2052265.5</v>
+        <v>2052266</v>
       </c>
       <c r="D133" s="1">
         <v>56</v>
       </c>
       <c r="E133" s="1">
         <f t="shared" si="4"/>
-        <v>2.082763671875</v>
+        <v>2.0830078125</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="5"/>
         <v>0.18666666666666668</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12">
       <c r="A134" s="1">
         <v>2048</v>
       </c>
@@ -6095,21 +5840,21 @@
         <v>300</v>
       </c>
       <c r="C134" s="1">
-        <v>2052270.5</v>
+        <v>2052270</v>
       </c>
       <c r="D134" s="1">
         <v>78</v>
       </c>
       <c r="E134" s="1">
         <f t="shared" si="4"/>
-        <v>2.085205078125</v>
+        <v>2.0849609375</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
         <v>0.26</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12">
       <c r="A135" s="1">
         <v>2048</v>
       </c>
@@ -6117,21 +5862,21 @@
         <v>300</v>
       </c>
       <c r="C135" s="1">
-        <v>2052275.5</v>
+        <v>2052276</v>
       </c>
       <c r="D135" s="1">
         <v>66</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="4"/>
-        <v>2.087646484375</v>
+        <v>2.087890625</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="5"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="12">
       <c r="A136" s="1">
         <v>2048</v>
       </c>
@@ -6139,21 +5884,21 @@
         <v>300</v>
       </c>
       <c r="C136" s="1">
-        <v>2052280.5</v>
+        <v>2052280</v>
       </c>
       <c r="D136" s="1">
         <v>31</v>
       </c>
       <c r="E136" s="1">
         <f t="shared" si="4"/>
-        <v>2.090087890625</v>
+        <v>2.08984375</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="5"/>
         <v>0.10333333333333333</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="12">
       <c r="A137" s="1">
         <v>2048</v>
       </c>
@@ -6161,21 +5906,21 @@
         <v>300</v>
       </c>
       <c r="C137" s="1">
-        <v>2052285.5</v>
+        <v>2052286</v>
       </c>
       <c r="D137" s="1">
         <v>20</v>
       </c>
       <c r="E137" s="1">
         <f t="shared" si="4"/>
-        <v>2.092529296875</v>
+        <v>2.0927734375</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="12">
       <c r="A138" s="1">
         <v>2048</v>
       </c>
@@ -6183,21 +5928,21 @@
         <v>300</v>
       </c>
       <c r="C138" s="1">
-        <v>2052290.5</v>
+        <v>2052290</v>
       </c>
       <c r="D138" s="1">
         <v>9</v>
       </c>
       <c r="E138" s="1">
         <f t="shared" si="4"/>
-        <v>2.094970703125</v>
+        <v>2.0947265625</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="12">
       <c r="A139" s="1">
         <v>2048</v>
       </c>
@@ -6205,21 +5950,21 @@
         <v>300</v>
       </c>
       <c r="C139" s="1">
-        <v>2052295.5</v>
+        <v>2052296</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="1">
         <f t="shared" si="4"/>
-        <v>2.097412109375</v>
+        <v>2.09765625</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="12">
       <c r="A140" s="1">
         <v>2048</v>
       </c>
@@ -6227,21 +5972,21 @@
         <v>300</v>
       </c>
       <c r="C140" s="1">
-        <v>2052300.5</v>
+        <v>2052300</v>
       </c>
       <c r="D140" s="1">
         <v>2</v>
       </c>
       <c r="E140" s="1">
         <f t="shared" si="4"/>
-        <v>2.099853515625</v>
+        <v>2.099609375</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12">
       <c r="A141" s="1">
         <v>2048</v>
       </c>
@@ -6249,2179 +5994,1172 @@
         <v>300</v>
       </c>
       <c r="C141" s="1">
-        <v>2052305.5</v>
+        <v>2052306</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="1">
         <f t="shared" si="4"/>
-        <v>2.102294921875</v>
+        <v>2.1025390625</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
         <v>3.3333333333333335E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12">
       <c r="A142" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B142" s="1">
         <v>300</v>
       </c>
       <c r="C142" s="1">
-        <v>2052310.5</v>
+        <v>4103956</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E142" s="1">
         <f t="shared" si="4"/>
-        <v>2.104736328125</v>
+        <v>1.9423828125</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12">
       <c r="A143" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B143" s="1">
         <v>300</v>
       </c>
       <c r="C143" s="1">
-        <v>2052315.5</v>
+        <v>4103962</v>
       </c>
       <c r="D143" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E143" s="1">
         <f t="shared" si="4"/>
-        <v>2.107177734375</v>
+        <v>1.94384765625</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12">
       <c r="A144" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B144" s="1">
         <v>300</v>
       </c>
       <c r="C144" s="1">
-        <v>2052320.5</v>
+        <v>4103966</v>
       </c>
       <c r="D144" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E144" s="1">
         <f t="shared" si="4"/>
-        <v>2.109619140625</v>
+        <v>1.94482421875</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6666666666666668E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12">
       <c r="A145" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B145" s="1">
         <v>300</v>
       </c>
       <c r="C145" s="1">
-        <v>2052325.5</v>
+        <v>4103972</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E145" s="1">
         <f t="shared" si="4"/>
-        <v>2.112060546875</v>
+        <v>1.9462890625</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12">
       <c r="A146" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B146" s="1">
         <v>300</v>
       </c>
       <c r="C146" s="1">
-        <v>2052330.5</v>
+        <v>4103976</v>
       </c>
       <c r="D146" s="1">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E146" s="1">
         <f t="shared" si="4"/>
-        <v>2.114501953125</v>
+        <v>1.947265625</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>9.3333333333333338E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12">
       <c r="A147" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B147" s="1">
         <v>300</v>
       </c>
       <c r="C147" s="1">
-        <v>2052335.5</v>
+        <v>4103982</v>
       </c>
       <c r="D147" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E147" s="1">
         <f t="shared" si="4"/>
-        <v>2.116943359375</v>
+        <v>1.94873046875</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12">
       <c r="A148" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B148" s="1">
         <v>300</v>
       </c>
       <c r="C148" s="1">
-        <v>2052340.5</v>
+        <v>4103986</v>
       </c>
       <c r="D148" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E148" s="1">
         <f t="shared" si="4"/>
-        <v>2.119384765625</v>
+        <v>1.94970703125</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.10666666666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12">
       <c r="A149" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B149" s="1">
         <v>300</v>
       </c>
       <c r="C149" s="1">
-        <v>2052345.5</v>
+        <v>4103992</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E149" s="1">
         <f t="shared" si="4"/>
-        <v>2.121826171875</v>
+        <v>1.951171875</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12">
       <c r="A150" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B150" s="1">
         <v>300</v>
       </c>
       <c r="C150" s="1">
-        <v>2052350.5</v>
+        <v>4103996</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E150" s="1">
         <f t="shared" si="4"/>
-        <v>2.124267578125</v>
+        <v>1.9521484375</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.14666666666666667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12">
       <c r="A151" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B151" s="1">
         <v>300</v>
       </c>
       <c r="C151" s="1">
-        <v>2052355.5</v>
+        <v>4104002</v>
       </c>
       <c r="D151" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E151" s="1">
         <f t="shared" si="4"/>
-        <v>2.126708984375</v>
+        <v>1.95361328125</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="12">
       <c r="A152" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B152" s="1">
         <v>300</v>
       </c>
       <c r="C152" s="1">
-        <v>2052360.5</v>
+        <v>4104006</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E152" s="1">
         <f t="shared" si="4"/>
-        <v>2.129150390625</v>
+        <v>1.95458984375</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="12">
       <c r="A153" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="B153" s="1">
         <v>300</v>
       </c>
       <c r="C153" s="1">
-        <v>2052365.5</v>
+        <v>4104012</v>
       </c>
       <c r="D153" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E153" s="1">
         <f t="shared" si="4"/>
-        <v>2.131591796875</v>
+        <v>1.9560546875</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12">
       <c r="A154" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B154" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C154" s="1">
-        <v>2052370.5</v>
+        <v>8209062</v>
       </c>
       <c r="D154" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E154" s="1">
         <f t="shared" si="4"/>
-        <v>2.134033203125</v>
+        <v>2.082763671875</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.1538461538461539E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="12">
       <c r="A155" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B155" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C155" s="1">
-        <v>2052375.5</v>
+        <v>8209068</v>
       </c>
       <c r="D155" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E155" s="1">
         <f t="shared" si="4"/>
-        <v>2.136474609375</v>
+        <v>2.08349609375</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.1538461538461539E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="12">
       <c r="A156" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B156" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C156" s="1">
-        <v>2052380.5</v>
+        <v>8209072</v>
       </c>
       <c r="D156" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" s="1">
         <f t="shared" si="4"/>
-        <v>2.138916015625</v>
+        <v>2.083984375</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="12">
       <c r="A157" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B157" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C157" s="1">
-        <v>2052385.5</v>
+        <v>8209078</v>
       </c>
       <c r="D157" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E157" s="1">
         <f t="shared" si="4"/>
-        <v>2.141357421875</v>
+        <v>2.084716796875</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3076923076923078E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="12">
       <c r="A158" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B158" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C158" s="1">
-        <v>2052390.5</v>
+        <v>8209082</v>
       </c>
       <c r="D158" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E158" s="1">
         <f t="shared" si="4"/>
-        <v>2.143798828125</v>
+        <v>2.085205078125</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="12">
       <c r="A159" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B159" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C159" s="1">
-        <v>2052395.5</v>
+        <v>8209088</v>
       </c>
       <c r="D159" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E159" s="1">
         <f t="shared" si="4"/>
-        <v>2.146240234375</v>
+        <v>2.0859375</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="12">
       <c r="A160" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B160" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C160" s="1">
-        <v>2052400.5</v>
+        <v>8209092</v>
       </c>
       <c r="D160" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E160" s="1">
         <f t="shared" si="4"/>
-        <v>2.148681640625</v>
+        <v>2.08642578125</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.5384615384615388E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="12">
       <c r="A161" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B161" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C161" s="1">
-        <v>2052405.5</v>
+        <v>8209098</v>
       </c>
       <c r="D161" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E161" s="1">
         <f t="shared" si="4"/>
-        <v>2.151123046875</v>
+        <v>2.087158203125</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.9230769230769235E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="12">
       <c r="A162" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B162" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C162" s="1">
-        <v>2052410.5</v>
+        <v>8209102</v>
       </c>
       <c r="D162" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E162" s="1">
         <f t="shared" si="4"/>
-        <v>2.153564453125</v>
+        <v>2.087646484375</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="12">
       <c r="A163" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B163" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C163" s="1">
-        <v>2052415.5</v>
+        <v>8209108</v>
       </c>
       <c r="D163" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E163" s="1">
-        <f t="shared" si="4"/>
-        <v>2.156005859375</v>
+        <f t="shared" ref="E163:E193" si="6">(C163-A163*1000)/A163</f>
+        <v>2.08837890625</v>
       </c>
       <c r="F163" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F163:F193" si="7">D163/B163</f>
+        <v>0.10384615384615385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="12">
       <c r="A164" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B164" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C164" s="1">
-        <v>2052420.5</v>
+        <v>8209112</v>
       </c>
       <c r="D164" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E164" s="1">
-        <f t="shared" si="4"/>
-        <v>2.158447265625</v>
+        <f t="shared" si="6"/>
+        <v>2.0888671875</v>
       </c>
       <c r="F164" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.10384615384615385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="12">
       <c r="A165" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B165" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C165" s="1">
-        <v>2052425.5</v>
+        <v>8209118</v>
       </c>
       <c r="D165" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E165" s="1">
-        <f t="shared" si="4"/>
-        <v>2.160888671875</v>
+        <f t="shared" si="6"/>
+        <v>2.089599609375</v>
       </c>
       <c r="F165" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>0.11153846153846154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="12">
       <c r="A166" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B166" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C166" s="1">
-        <v>2052430.5</v>
+        <v>8209122</v>
       </c>
       <c r="D166" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E166" s="1">
-        <f t="shared" si="4"/>
-        <v>2.163330078125</v>
+        <f t="shared" si="6"/>
+        <v>2.090087890625</v>
       </c>
       <c r="F166" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>8.461538461538462E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="12">
       <c r="A167" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B167" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C167" s="1">
-        <v>2052435.5</v>
+        <v>8209128</v>
       </c>
       <c r="D167" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E167" s="1">
-        <f t="shared" si="4"/>
-        <v>2.165771484375</v>
+        <f t="shared" si="6"/>
+        <v>2.0908203125</v>
       </c>
       <c r="F167" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>6.5384615384615388E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="12">
       <c r="A168" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B168" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C168" s="1">
-        <v>2052440.5</v>
+        <v>8209132</v>
       </c>
       <c r="D168" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E168" s="1">
-        <f t="shared" si="4"/>
-        <v>2.168212890625</v>
+        <f t="shared" si="6"/>
+        <v>2.09130859375</v>
       </c>
       <c r="F168" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>5.7692307692307696E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="12">
       <c r="A169" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B169" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C169" s="1">
-        <v>2052445.5</v>
+        <v>8209138</v>
       </c>
       <c r="D169" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E169" s="1">
-        <f t="shared" si="4"/>
-        <v>2.170654296875</v>
+        <f t="shared" si="6"/>
+        <v>2.092041015625</v>
       </c>
       <c r="F169" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>4.230769230769231E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="12">
       <c r="A170" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B170" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C170" s="1">
-        <v>2052450.5</v>
+        <v>8209142</v>
       </c>
       <c r="D170" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E170" s="1">
-        <f t="shared" si="4"/>
-        <v>2.173095703125</v>
+        <f t="shared" si="6"/>
+        <v>2.092529296875</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>3.4615384615384617E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="12">
       <c r="A171" s="1">
-        <v>2048</v>
+        <v>8192</v>
       </c>
       <c r="B171" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C171" s="1">
-        <v>2052455.5</v>
+        <v>8209148</v>
       </c>
       <c r="D171" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171" s="1">
-        <f t="shared" si="4"/>
-        <v>2.175537109375</v>
+        <f t="shared" si="6"/>
+        <v>2.09326171875</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>1.1538461538461539E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="12">
       <c r="A172" s="1">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="B172" s="1">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C172" s="1">
-        <v>4103956.5</v>
+        <v>8209152</v>
       </c>
       <c r="D172" s="1">
         <v>3</v>
       </c>
       <c r="E172" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9425048828125</v>
+        <f t="shared" si="6"/>
+        <v>2.09375</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B173" s="1">
-        <v>300</v>
-      </c>
-      <c r="C173" s="1">
-        <v>4103961.5</v>
-      </c>
-      <c r="D173" s="1">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9437255859375</v>
-      </c>
-      <c r="F173" s="1">
-        <f t="shared" si="5"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B174" s="1">
-        <v>300</v>
-      </c>
-      <c r="C174" s="1">
-        <v>4103966.5</v>
-      </c>
-      <c r="D174" s="1">
-        <v>8</v>
-      </c>
-      <c r="E174" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9449462890625</v>
-      </c>
-      <c r="F174" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B175" s="1">
-        <v>300</v>
-      </c>
-      <c r="C175" s="1">
-        <v>4103971.5</v>
-      </c>
-      <c r="D175" s="1">
-        <v>22</v>
-      </c>
-      <c r="E175" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9461669921875</v>
-      </c>
-      <c r="F175" s="1">
-        <f t="shared" si="5"/>
-        <v>7.3333333333333334E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B176" s="1">
-        <v>300</v>
-      </c>
-      <c r="C176" s="1">
-        <v>4103976.5</v>
-      </c>
-      <c r="D176" s="1">
-        <v>28</v>
-      </c>
-      <c r="E176" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9473876953125</v>
-      </c>
-      <c r="F176" s="1">
-        <f t="shared" si="5"/>
-        <v>9.3333333333333338E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B177" s="1">
-        <v>300</v>
-      </c>
-      <c r="C177" s="1">
-        <v>4103981.5</v>
-      </c>
-      <c r="D177" s="1">
-        <v>33</v>
-      </c>
-      <c r="E177" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9486083984375</v>
-      </c>
-      <c r="F177" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B178" s="1">
-        <v>300</v>
-      </c>
-      <c r="C178" s="1">
-        <v>4103986.5</v>
-      </c>
-      <c r="D178" s="1">
-        <v>32</v>
-      </c>
-      <c r="E178" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9498291015625</v>
-      </c>
-      <c r="F178" s="1">
-        <f t="shared" si="5"/>
-        <v>0.10666666666666667</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B179" s="1">
-        <v>300</v>
-      </c>
-      <c r="C179" s="1">
-        <v>4103991.5</v>
-      </c>
-      <c r="D179" s="1">
-        <v>50</v>
-      </c>
-      <c r="E179" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9510498046875</v>
-      </c>
-      <c r="F179" s="1">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B180" s="1">
-        <v>300</v>
-      </c>
-      <c r="C180" s="1">
-        <v>4103996.5</v>
-      </c>
-      <c r="D180" s="1">
-        <v>44</v>
-      </c>
-      <c r="E180" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9522705078125</v>
-      </c>
-      <c r="F180" s="1">
-        <f t="shared" si="5"/>
-        <v>0.14666666666666667</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B181" s="1">
-        <v>300</v>
-      </c>
-      <c r="C181" s="1">
-        <v>4104001.5</v>
-      </c>
-      <c r="D181" s="1">
-        <v>34</v>
-      </c>
-      <c r="E181" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9534912109375</v>
-      </c>
-      <c r="F181" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11333333333333333</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B182" s="1">
-        <v>300</v>
-      </c>
-      <c r="C182" s="1">
-        <v>4104006.5</v>
-      </c>
-      <c r="D182" s="1">
-        <v>21</v>
-      </c>
-      <c r="E182" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9547119140625</v>
-      </c>
-      <c r="F182" s="1">
-        <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B183" s="1">
-        <v>300</v>
-      </c>
-      <c r="C183" s="1">
-        <v>4104011.5</v>
-      </c>
-      <c r="D183" s="1">
-        <v>5</v>
-      </c>
-      <c r="E183" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9559326171875</v>
-      </c>
-      <c r="F183" s="1">
-        <f t="shared" si="5"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B184" s="1">
-        <v>300</v>
-      </c>
-      <c r="C184" s="1">
-        <v>4104016.5</v>
-      </c>
-      <c r="D184" s="1">
-        <v>1</v>
-      </c>
-      <c r="E184" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9571533203125</v>
-      </c>
-      <c r="F184" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>4096</v>
-      </c>
-      <c r="B185" s="1">
-        <v>300</v>
-      </c>
-      <c r="C185" s="1">
-        <v>4104021.5</v>
-      </c>
-      <c r="D185" s="1">
-        <v>1</v>
-      </c>
-      <c r="E185" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9583740234375</v>
-      </c>
-      <c r="F185" s="1">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B186" s="1">
-        <v>260</v>
-      </c>
-      <c r="C186" s="1">
-        <v>8209064.5</v>
-      </c>
-      <c r="D186" s="1">
-        <v>3</v>
-      </c>
-      <c r="E186" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08306884765625</v>
-      </c>
-      <c r="F186" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1538461538461539E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B187" s="1">
-        <v>260</v>
-      </c>
-      <c r="C187" s="1">
-        <v>8209069.5</v>
-      </c>
-      <c r="D187" s="1">
-        <v>5</v>
-      </c>
-      <c r="E187" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08367919921875</v>
-      </c>
-      <c r="F187" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9230769230769232E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B188" s="1">
-        <v>260</v>
-      </c>
-      <c r="C188" s="1">
-        <v>8209074.5</v>
-      </c>
-      <c r="D188" s="1">
-        <v>2</v>
-      </c>
-      <c r="E188" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08428955078125</v>
-      </c>
-      <c r="F188" s="1">
-        <f t="shared" si="5"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B189" s="1">
-        <v>260</v>
-      </c>
-      <c r="C189" s="1">
-        <v>8209079.5</v>
-      </c>
-      <c r="D189" s="1">
-        <v>7</v>
-      </c>
-      <c r="E189" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08489990234375</v>
-      </c>
-      <c r="F189" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6923076923076925E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B190" s="1">
-        <v>260</v>
-      </c>
-      <c r="C190" s="1">
-        <v>8209084.5</v>
-      </c>
-      <c r="D190" s="1">
-        <v>4</v>
-      </c>
-      <c r="E190" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08551025390625</v>
-      </c>
-      <c r="F190" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B191" s="1">
-        <v>260</v>
-      </c>
-      <c r="C191" s="1">
-        <v>8209089.5</v>
-      </c>
-      <c r="D191" s="1">
-        <v>14</v>
-      </c>
-      <c r="E191" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08612060546875</v>
-      </c>
-      <c r="F191" s="1">
-        <f t="shared" si="5"/>
-        <v>5.3846153846153849E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B192" s="1">
-        <v>260</v>
-      </c>
-      <c r="C192" s="1">
-        <v>8209094.5</v>
-      </c>
-      <c r="D192" s="1">
-        <v>18</v>
-      </c>
-      <c r="E192" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08673095703125</v>
-      </c>
-      <c r="F192" s="1">
-        <f t="shared" si="5"/>
-        <v>6.9230769230769235E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B193" s="1">
-        <v>260</v>
-      </c>
-      <c r="C193" s="1">
-        <v>8209099.5</v>
-      </c>
-      <c r="D193" s="1">
-        <v>24</v>
-      </c>
-      <c r="E193" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08734130859375</v>
-      </c>
-      <c r="F193" s="1">
-        <f t="shared" si="5"/>
-        <v>9.2307692307692313E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B194" s="1">
-        <v>260</v>
-      </c>
-      <c r="C194" s="1">
-        <v>8209104.5</v>
-      </c>
-      <c r="D194" s="1">
-        <v>25</v>
-      </c>
-      <c r="E194" s="1">
-        <f t="shared" si="4"/>
-        <v>2.08795166015625</v>
-      </c>
-      <c r="F194" s="1">
-        <f t="shared" si="5"/>
-        <v>9.6153846153846159E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B195" s="1">
-        <v>260</v>
-      </c>
-      <c r="C195" s="1">
-        <v>8209109.5</v>
-      </c>
-      <c r="D195" s="1">
-        <v>31</v>
-      </c>
-      <c r="E195" s="1">
-        <f t="shared" ref="E195:E239" si="6">(C195-A195*1000)/A195</f>
-        <v>2.08856201171875</v>
-      </c>
-      <c r="F195" s="1">
-        <f t="shared" ref="F195:F239" si="7">D195/B195</f>
-        <v>0.11923076923076924</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B196" s="1">
-        <v>260</v>
-      </c>
-      <c r="C196" s="1">
-        <v>8209114.5</v>
-      </c>
-      <c r="D196" s="1">
-        <v>24</v>
-      </c>
-      <c r="E196" s="1">
-        <f t="shared" si="6"/>
-        <v>2.08917236328125</v>
-      </c>
-      <c r="F196" s="1">
-        <f t="shared" si="7"/>
-        <v>9.2307692307692313E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B197" s="1">
-        <v>260</v>
-      </c>
-      <c r="C197" s="1">
-        <v>8209119.5</v>
-      </c>
-      <c r="D197" s="1">
-        <v>30</v>
-      </c>
-      <c r="E197" s="1">
-        <f t="shared" si="6"/>
-        <v>2.08978271484375</v>
-      </c>
-      <c r="F197" s="1">
-        <f t="shared" si="7"/>
-        <v>0.11538461538461539</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B198" s="1">
-        <v>260</v>
-      </c>
-      <c r="C198" s="1">
-        <v>8209124.5</v>
-      </c>
-      <c r="D198" s="1">
-        <v>16</v>
-      </c>
-      <c r="E198" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09039306640625</v>
-      </c>
-      <c r="F198" s="1">
-        <f t="shared" si="7"/>
-        <v>6.1538461538461542E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B199" s="1">
-        <v>260</v>
-      </c>
-      <c r="C199" s="1">
-        <v>8209129.5</v>
-      </c>
-      <c r="D199" s="1">
-        <v>23</v>
-      </c>
-      <c r="E199" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09100341796875</v>
-      </c>
-      <c r="F199" s="1">
-        <f t="shared" si="7"/>
-        <v>8.8461538461538466E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B200" s="1">
-        <v>260</v>
-      </c>
-      <c r="C200" s="1">
-        <v>8209134.5</v>
-      </c>
-      <c r="D200" s="1">
-        <v>11</v>
-      </c>
-      <c r="E200" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09161376953125</v>
-      </c>
-      <c r="F200" s="1">
-        <f t="shared" si="7"/>
-        <v>4.230769230769231E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B201" s="1">
-        <v>260</v>
-      </c>
-      <c r="C201" s="1">
-        <v>8209139.5</v>
-      </c>
-      <c r="D201" s="1">
-        <v>11</v>
-      </c>
-      <c r="E201" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09222412109375</v>
-      </c>
-      <c r="F201" s="1">
-        <f t="shared" si="7"/>
-        <v>4.230769230769231E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B202" s="1">
-        <v>260</v>
-      </c>
-      <c r="C202" s="1">
-        <v>8209144.5</v>
-      </c>
-      <c r="D202" s="1">
-        <v>5</v>
-      </c>
-      <c r="E202" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09283447265625</v>
-      </c>
-      <c r="F202" s="1">
-        <f t="shared" si="7"/>
-        <v>1.9230769230769232E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>8192</v>
-      </c>
-      <c r="B203" s="1">
-        <v>260</v>
-      </c>
-      <c r="C203" s="1">
-        <v>8209149.5</v>
-      </c>
-      <c r="D203" s="1">
-        <v>3</v>
-      </c>
-      <c r="E203" s="1">
-        <f t="shared" si="6"/>
-        <v>2.09344482421875</v>
-      </c>
-      <c r="F203" s="1">
         <f t="shared" si="7"/>
         <v>1.1538461538461539E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="173" spans="1:6" ht="12">
+      <c r="A173" s="1">
         <v>8192</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B173" s="1">
         <v>260</v>
       </c>
-      <c r="C204" s="1">
-        <v>8209154.5</v>
-      </c>
-      <c r="D204" s="1">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1">
+      <c r="C173" s="1">
+        <v>8209158</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2</v>
+      </c>
+      <c r="E173" s="1">
         <f t="shared" si="6"/>
-        <v>2.09405517578125</v>
-      </c>
-      <c r="F204" s="1">
+        <v>2.094482421875</v>
+      </c>
+      <c r="F173" s="1">
         <f t="shared" si="7"/>
-        <v>1.1538461538461539E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12">
+      <c r="A174" s="1">
         <v>8192</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B174" s="1">
         <v>260</v>
       </c>
-      <c r="C205" s="1">
-        <v>8209159.5</v>
-      </c>
-      <c r="D205" s="1">
-        <v>1</v>
-      </c>
-      <c r="E205" s="1">
+      <c r="C174" s="1">
+        <v>8209162</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <f t="shared" ref="E174" si="8">(C174-A174*1000)/A174</f>
+        <v>2.094970703125</v>
+      </c>
+      <c r="F174" s="1">
+        <f t="shared" ref="F174" si="9">D174/B174</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="12">
+      <c r="A175" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B175" s="1">
+        <v>130</v>
+      </c>
+      <c r="C175" s="1">
+        <v>16416265</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2</v>
+      </c>
+      <c r="E175" s="1">
         <f t="shared" si="6"/>
-        <v>2.09466552734375</v>
-      </c>
-      <c r="F205" s="1">
+        <v>1.96929931640625</v>
+      </c>
+      <c r="F175" s="1">
         <f t="shared" si="7"/>
-        <v>3.8461538461538464E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12">
+      <c r="A176" s="1">
         <v>16384</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B176" s="1">
         <v>130</v>
       </c>
-      <c r="C206" s="1">
-        <v>16416269.5</v>
-      </c>
-      <c r="D206" s="1">
+      <c r="C176" s="1">
+        <v>16416275</v>
+      </c>
+      <c r="D176" s="1">
         <v>5</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E176" s="1">
         <f t="shared" si="6"/>
-        <v>1.969573974609375</v>
-      </c>
-      <c r="F206" s="1">
+        <v>1.96990966796875</v>
+      </c>
+      <c r="F176" s="1">
         <f t="shared" si="7"/>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="177" spans="1:6" ht="12">
+      <c r="A177" s="1">
         <v>16384</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B177" s="1">
         <v>130</v>
       </c>
-      <c r="C207" s="1">
-        <v>16416274.5</v>
-      </c>
-      <c r="D207" s="1">
+      <c r="C177" s="1">
+        <v>16416285</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2</v>
+      </c>
+      <c r="E177" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97052001953125</v>
+      </c>
+      <c r="F177" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="12">
+      <c r="A178" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B178" s="1">
+        <v>130</v>
+      </c>
+      <c r="C178" s="1">
+        <v>16416295</v>
+      </c>
+      <c r="D178" s="1">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97113037109375</v>
+      </c>
+      <c r="F178" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6153846153846156E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="12">
+      <c r="A179" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B179" s="1">
+        <v>130</v>
+      </c>
+      <c r="C179" s="1">
+        <v>16416305</v>
+      </c>
+      <c r="D179" s="1">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97174072265625</v>
+      </c>
+      <c r="F179" s="1">
+        <f t="shared" si="7"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="12">
+      <c r="A180" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B180" s="1">
+        <v>130</v>
+      </c>
+      <c r="C180" s="1">
+        <v>16416315</v>
+      </c>
+      <c r="D180" s="1">
+        <v>10</v>
+      </c>
+      <c r="E180" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97235107421875</v>
+      </c>
+      <c r="F180" s="1">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="12">
+      <c r="A181" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B181" s="1">
+        <v>130</v>
+      </c>
+      <c r="C181" s="1">
+        <v>16416325</v>
+      </c>
+      <c r="D181" s="1">
+        <v>9</v>
+      </c>
+      <c r="E181" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97296142578125</v>
+      </c>
+      <c r="F181" s="1">
+        <f t="shared" si="7"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="12">
+      <c r="A182" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B182" s="1">
+        <v>130</v>
+      </c>
+      <c r="C182" s="1">
+        <v>16416335</v>
+      </c>
+      <c r="D182" s="1">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97357177734375</v>
+      </c>
+      <c r="F182" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3846153846153849E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="12">
+      <c r="A183" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B183" s="1">
+        <v>130</v>
+      </c>
+      <c r="C183" s="1">
+        <v>16416345</v>
+      </c>
+      <c r="D183" s="1">
+        <v>18</v>
+      </c>
+      <c r="E183" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97418212890625</v>
+      </c>
+      <c r="F183" s="1">
+        <f t="shared" si="7"/>
+        <v>0.13846153846153847</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="12">
+      <c r="A184" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B184" s="1">
+        <v>130</v>
+      </c>
+      <c r="C184" s="1">
+        <v>16416355</v>
+      </c>
+      <c r="D184" s="1">
+        <v>13</v>
+      </c>
+      <c r="E184" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97479248046875</v>
+      </c>
+      <c r="F184" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="12">
+      <c r="A185" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B185" s="1">
+        <v>130</v>
+      </c>
+      <c r="C185" s="1">
+        <v>16416365</v>
+      </c>
+      <c r="D185" s="1">
+        <v>19</v>
+      </c>
+      <c r="E185" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97540283203125</v>
+      </c>
+      <c r="F185" s="1">
+        <f t="shared" si="7"/>
+        <v>0.14615384615384616</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="12">
+      <c r="A186" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B186" s="1">
+        <v>130</v>
+      </c>
+      <c r="C186" s="1">
+        <v>16416375</v>
+      </c>
+      <c r="D186" s="1">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97601318359375</v>
+      </c>
+      <c r="F186" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3846153846153849E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="12">
+      <c r="A187" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B187" s="1">
+        <v>130</v>
+      </c>
+      <c r="C187" s="1">
+        <v>16416385</v>
+      </c>
+      <c r="D187" s="1">
+        <v>10</v>
+      </c>
+      <c r="E187" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97662353515625</v>
+      </c>
+      <c r="F187" s="1">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="12">
+      <c r="A188" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B188" s="1">
+        <v>130</v>
+      </c>
+      <c r="C188" s="1">
+        <v>16416395</v>
+      </c>
+      <c r="D188" s="1">
+        <v>9</v>
+      </c>
+      <c r="E188" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97723388671875</v>
+      </c>
+      <c r="F188" s="1">
+        <f t="shared" si="7"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="12">
+      <c r="A189" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B189" s="1">
+        <v>130</v>
+      </c>
+      <c r="C189" s="1">
+        <v>16416405</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1</v>
+      </c>
+      <c r="E189" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97784423828125</v>
+      </c>
+      <c r="F189" s="1">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="12">
+      <c r="A190" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B190" s="1">
+        <v>130</v>
+      </c>
+      <c r="C190" s="1">
+        <v>16416415</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2</v>
+      </c>
+      <c r="E190" s="1">
+        <f t="shared" si="6"/>
+        <v>1.97845458984375</v>
+      </c>
+      <c r="F190" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="12">
+      <c r="A191" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B191" s="1">
+        <v>130</v>
+      </c>
+      <c r="C191" s="1">
+        <v>16416425</v>
+      </c>
+      <c r="D191" s="1">
         <v>0</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E191" s="1">
         <f t="shared" si="6"/>
-        <v>1.969879150390625</v>
-      </c>
-      <c r="F207" s="1">
+        <v>1.97906494140625</v>
+      </c>
+      <c r="F191" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="192" spans="1:6" ht="12">
+      <c r="A192" s="1">
         <v>16384</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B192" s="1">
         <v>130</v>
       </c>
-      <c r="C208" s="1">
-        <v>16416279.5</v>
-      </c>
-      <c r="D208" s="1">
-        <v>3</v>
-      </c>
-      <c r="E208" s="1">
+      <c r="C192" s="1">
+        <v>16416435</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
         <f t="shared" si="6"/>
-        <v>1.970184326171875</v>
-      </c>
-      <c r="F208" s="1">
+        <v>1.97967529296875</v>
+      </c>
+      <c r="F192" s="1">
         <f t="shared" si="7"/>
-        <v>2.3076923076923078E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+        <v>7.6923076923076927E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="12">
+      <c r="A193" s="1">
         <v>16384</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B193" s="1">
         <v>130</v>
       </c>
-      <c r="C209" s="1">
-        <v>16416284.5</v>
-      </c>
-      <c r="D209" s="1">
+      <c r="C193" s="1">
+        <v>16416445</v>
+      </c>
+      <c r="D193" s="1">
         <v>0</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E193" s="1">
         <f t="shared" si="6"/>
-        <v>1.970489501953125</v>
-      </c>
-      <c r="F209" s="1">
+        <v>1.98028564453125</v>
+      </c>
+      <c r="F193" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B210" s="1">
-        <v>130</v>
-      </c>
-      <c r="C210" s="1">
-        <v>16416289.5</v>
-      </c>
-      <c r="D210" s="1">
-        <v>3</v>
-      </c>
-      <c r="E210" s="1">
-        <f t="shared" si="6"/>
-        <v>1.970794677734375</v>
-      </c>
-      <c r="F210" s="1">
-        <f t="shared" si="7"/>
-        <v>2.3076923076923078E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B211" s="1">
-        <v>130</v>
-      </c>
-      <c r="C211" s="1">
-        <v>16416294.5</v>
-      </c>
-      <c r="D211" s="1">
-        <v>3</v>
-      </c>
-      <c r="E211" s="1">
-        <f t="shared" si="6"/>
-        <v>1.971099853515625</v>
-      </c>
-      <c r="F211" s="1">
-        <f t="shared" si="7"/>
-        <v>2.3076923076923078E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B212" s="1">
-        <v>130</v>
-      </c>
-      <c r="C212" s="1">
-        <v>16416299.5</v>
-      </c>
-      <c r="D212" s="1">
-        <v>4</v>
-      </c>
-      <c r="E212" s="1">
-        <f t="shared" si="6"/>
-        <v>1.971405029296875</v>
-      </c>
-      <c r="F212" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0769230769230771E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B213" s="1">
-        <v>130</v>
-      </c>
-      <c r="C213" s="1">
-        <v>16416304.5</v>
-      </c>
-      <c r="D213" s="1">
-        <v>4</v>
-      </c>
-      <c r="E213" s="1">
-        <f t="shared" si="6"/>
-        <v>1.971710205078125</v>
-      </c>
-      <c r="F213" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0769230769230771E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B214" s="1">
-        <v>130</v>
-      </c>
-      <c r="C214" s="1">
-        <v>16416309.5</v>
-      </c>
-      <c r="D214" s="1">
-        <v>2</v>
-      </c>
-      <c r="E214" s="1">
-        <f t="shared" si="6"/>
-        <v>1.972015380859375</v>
-      </c>
-      <c r="F214" s="1">
-        <f t="shared" si="7"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B215" s="1">
-        <v>130</v>
-      </c>
-      <c r="C215" s="1">
-        <v>16416314.5</v>
-      </c>
-      <c r="D215" s="1">
-        <v>6</v>
-      </c>
-      <c r="E215" s="1">
-        <f t="shared" si="6"/>
-        <v>1.972320556640625</v>
-      </c>
-      <c r="F215" s="1">
-        <f t="shared" si="7"/>
-        <v>4.6153846153846156E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B216" s="1">
-        <v>130</v>
-      </c>
-      <c r="C216" s="1">
-        <v>16416319.5</v>
-      </c>
-      <c r="D216" s="1">
-        <v>8</v>
-      </c>
-      <c r="E216" s="1">
-        <f t="shared" si="6"/>
-        <v>1.972625732421875</v>
-      </c>
-      <c r="F216" s="1">
-        <f t="shared" si="7"/>
-        <v>6.1538461538461542E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B217" s="1">
-        <v>130</v>
-      </c>
-      <c r="C217" s="1">
-        <v>16416324.5</v>
-      </c>
-      <c r="D217" s="1">
-        <v>5</v>
-      </c>
-      <c r="E217" s="1">
-        <f t="shared" si="6"/>
-        <v>1.972930908203125</v>
-      </c>
-      <c r="F217" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B218" s="1">
-        <v>130</v>
-      </c>
-      <c r="C218" s="1">
-        <v>16416329.5</v>
-      </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-      <c r="E218" s="1">
-        <f t="shared" si="6"/>
-        <v>1.973236083984375</v>
-      </c>
-      <c r="F218" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B219" s="1">
-        <v>130</v>
-      </c>
-      <c r="C219" s="1">
-        <v>16416334.5</v>
-      </c>
-      <c r="D219" s="1">
-        <v>5</v>
-      </c>
-      <c r="E219" s="1">
-        <f t="shared" si="6"/>
-        <v>1.973541259765625</v>
-      </c>
-      <c r="F219" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B220" s="1">
-        <v>130</v>
-      </c>
-      <c r="C220" s="1">
-        <v>16416339.5</v>
-      </c>
-      <c r="D220" s="1">
-        <v>4</v>
-      </c>
-      <c r="E220" s="1">
-        <f t="shared" si="6"/>
-        <v>1.973846435546875</v>
-      </c>
-      <c r="F220" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0769230769230771E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B221" s="1">
-        <v>130</v>
-      </c>
-      <c r="C221" s="1">
-        <v>16416344.5</v>
-      </c>
-      <c r="D221" s="1">
-        <v>10</v>
-      </c>
-      <c r="E221" s="1">
-        <f t="shared" si="6"/>
-        <v>1.974151611328125</v>
-      </c>
-      <c r="F221" s="1">
-        <f t="shared" si="7"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B222" s="1">
-        <v>130</v>
-      </c>
-      <c r="C222" s="1">
-        <v>16416349.5</v>
-      </c>
-      <c r="D222" s="1">
-        <v>7</v>
-      </c>
-      <c r="E222" s="1">
-        <f t="shared" si="6"/>
-        <v>1.974456787109375</v>
-      </c>
-      <c r="F222" s="1">
-        <f t="shared" si="7"/>
-        <v>5.3846153846153849E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B223" s="1">
-        <v>130</v>
-      </c>
-      <c r="C223" s="1">
-        <v>16416354.5</v>
-      </c>
-      <c r="D223" s="1">
-        <v>8</v>
-      </c>
-      <c r="E223" s="1">
-        <f t="shared" si="6"/>
-        <v>1.974761962890625</v>
-      </c>
-      <c r="F223" s="1">
-        <f t="shared" si="7"/>
-        <v>6.1538461538461542E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B224" s="1">
-        <v>130</v>
-      </c>
-      <c r="C224" s="1">
-        <v>16416359.5</v>
-      </c>
-      <c r="D224" s="1">
-        <v>12</v>
-      </c>
-      <c r="E224" s="1">
-        <f t="shared" si="6"/>
-        <v>1.975067138671875</v>
-      </c>
-      <c r="F224" s="1">
-        <f t="shared" si="7"/>
-        <v>9.2307692307692313E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B225" s="1">
-        <v>130</v>
-      </c>
-      <c r="C225" s="1">
-        <v>16416364.5</v>
-      </c>
-      <c r="D225" s="1">
-        <v>7</v>
-      </c>
-      <c r="E225" s="1">
-        <f t="shared" si="6"/>
-        <v>1.975372314453125</v>
-      </c>
-      <c r="F225" s="1">
-        <f t="shared" si="7"/>
-        <v>5.3846153846153849E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B226" s="1">
-        <v>130</v>
-      </c>
-      <c r="C226" s="1">
-        <v>16416369.5</v>
-      </c>
-      <c r="D226" s="1">
-        <v>5</v>
-      </c>
-      <c r="E226" s="1">
-        <f t="shared" si="6"/>
-        <v>1.975677490234375</v>
-      </c>
-      <c r="F226" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B227" s="1">
-        <v>130</v>
-      </c>
-      <c r="C227" s="1">
-        <v>16416374.5</v>
-      </c>
-      <c r="D227" s="1">
-        <v>5</v>
-      </c>
-      <c r="E227" s="1">
-        <f t="shared" si="6"/>
-        <v>1.975982666015625</v>
-      </c>
-      <c r="F227" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B228" s="1">
-        <v>130</v>
-      </c>
-      <c r="C228" s="1">
-        <v>16416379.5</v>
-      </c>
-      <c r="D228" s="1">
-        <v>4</v>
-      </c>
-      <c r="E228" s="1">
-        <f t="shared" si="6"/>
-        <v>1.976287841796875</v>
-      </c>
-      <c r="F228" s="1">
-        <f t="shared" si="7"/>
-        <v>3.0769230769230771E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B229" s="1">
-        <v>130</v>
-      </c>
-      <c r="C229" s="1">
-        <v>16416384.5</v>
-      </c>
-      <c r="D229" s="1">
-        <v>3</v>
-      </c>
-      <c r="E229" s="1">
-        <f t="shared" si="6"/>
-        <v>1.976593017578125</v>
-      </c>
-      <c r="F229" s="1">
-        <f t="shared" si="7"/>
-        <v>2.3076923076923078E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B230" s="1">
-        <v>130</v>
-      </c>
-      <c r="C230" s="1">
-        <v>16416389.5</v>
-      </c>
-      <c r="D230" s="1">
-        <v>6</v>
-      </c>
-      <c r="E230" s="1">
-        <f t="shared" si="6"/>
-        <v>1.976898193359375</v>
-      </c>
-      <c r="F230" s="1">
-        <f t="shared" si="7"/>
-        <v>4.6153846153846156E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B231" s="1">
-        <v>130</v>
-      </c>
-      <c r="C231" s="1">
-        <v>16416394.5</v>
-      </c>
-      <c r="D231" s="1">
-        <v>5</v>
-      </c>
-      <c r="E231" s="1">
-        <f t="shared" si="6"/>
-        <v>1.977203369140625</v>
-      </c>
-      <c r="F231" s="1">
-        <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B232" s="1">
-        <v>130</v>
-      </c>
-      <c r="C232" s="1">
-        <v>16416399.5</v>
-      </c>
-      <c r="D232" s="1">
-        <v>2</v>
-      </c>
-      <c r="E232" s="1">
-        <f t="shared" si="6"/>
-        <v>1.977508544921875</v>
-      </c>
-      <c r="F232" s="1">
-        <f t="shared" si="7"/>
-        <v>1.5384615384615385E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B233" s="1">
-        <v>130</v>
-      </c>
-      <c r="C233" s="1">
-        <v>16416404.5</v>
-      </c>
-      <c r="D233" s="1">
-        <v>1</v>
-      </c>
-      <c r="E233" s="1">
-        <f t="shared" si="6"/>
-        <v>1.977813720703125</v>
-      </c>
-      <c r="F233" s="1">
-        <f t="shared" si="7"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B234" s="1">
-        <v>130</v>
-      </c>
-      <c r="C234" s="1">
-        <v>16416409.5</v>
-      </c>
-      <c r="D234" s="1">
-        <v>1</v>
-      </c>
-      <c r="E234" s="1">
-        <f t="shared" si="6"/>
-        <v>1.978118896484375</v>
-      </c>
-      <c r="F234" s="1">
-        <f t="shared" si="7"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B235" s="1">
-        <v>130</v>
-      </c>
-      <c r="C235" s="1">
-        <v>16416414.5</v>
-      </c>
-      <c r="D235" s="1">
-        <v>0</v>
-      </c>
-      <c r="E235" s="1">
-        <f t="shared" si="6"/>
-        <v>1.978424072265625</v>
-      </c>
-      <c r="F235" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B236" s="1">
-        <v>130</v>
-      </c>
-      <c r="C236" s="1">
-        <v>16416419.5</v>
-      </c>
-      <c r="D236" s="1">
-        <v>1</v>
-      </c>
-      <c r="E236" s="1">
-        <f t="shared" si="6"/>
-        <v>1.978729248046875</v>
-      </c>
-      <c r="F236" s="1">
-        <f t="shared" si="7"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B237" s="1">
-        <v>130</v>
-      </c>
-      <c r="C237" s="1">
-        <v>16416424.5</v>
-      </c>
-      <c r="D237" s="1">
-        <v>0</v>
-      </c>
-      <c r="E237" s="1">
-        <f t="shared" si="6"/>
-        <v>1.979034423828125</v>
-      </c>
-      <c r="F237" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B238" s="1">
-        <v>130</v>
-      </c>
-      <c r="C238" s="1">
-        <v>16416429.5</v>
-      </c>
-      <c r="D238" s="1">
-        <v>0</v>
-      </c>
-      <c r="E238" s="1">
-        <f t="shared" si="6"/>
-        <v>1.979339599609375</v>
-      </c>
-      <c r="F238" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B239" s="1">
-        <v>130</v>
-      </c>
-      <c r="C239" s="1">
-        <v>16416434.5</v>
-      </c>
-      <c r="D239" s="1">
-        <v>1</v>
-      </c>
-      <c r="E239" s="1">
-        <f t="shared" si="6"/>
-        <v>1.979644775390625</v>
-      </c>
-      <c r="F239" s="1">
-        <f t="shared" si="7"/>
-        <v>7.6923076923076927E-3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>